--- a/outputs/main_sheet.xlsx
+++ b/outputs/main_sheet.xlsx
@@ -8,18 +8,18 @@
   <sheets>
     <sheet name="input_barn" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="input_storage" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="emission_dat" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="nutrient_dat" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="manure" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="feed" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="feed_spill" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Emission data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nutrient balance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Manure" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Feed composition" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Feed spill" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="467">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -255,147 +255,147 @@
     <t xml:space="preserve">wash water, kg animal-1</t>
   </si>
   <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty time of section, days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grazing days, days yr-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grazing hours, h day-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grazing start, month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excretion ratio, deeplitter/total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pit/floor ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1000000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area, m2 animal-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production area, m2 section-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pit area, m2 section-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1430.0000000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1787.5000000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed and excreta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production time, days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feed intake, kg animal-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213.23076923076925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk production, kg animal-1 yr-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk protein, g kg milk-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body weight, kg animal-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedding material, kg animal-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feed spill fraction, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water spill, kg animal-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">75</t>
   </si>
   <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water spill, kg animal-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empty time of section, days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grazing days, days yr-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grazing hours, h day-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grazing start, month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excretion ratio, deeplitter/total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pit/floor ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1000000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area, m2 animal-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production area, m2 section-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pit area, m2 section-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1430.0000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1787.5000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed and excreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production time, days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feed intake, kg animal-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213.23076923076925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milk production, kg animal-1 yr-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milk protein, g kg milk-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body weight, kg animal-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedding material, kg animal-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feed spill fraction, %</t>
-  </si>
-  <si>
     <t xml:space="preserve">37</t>
   </si>
   <si>
@@ -1074,117 +1074,210 @@
     <t xml:space="preserve">source</t>
   </si>
   <si>
+    <t xml:space="preserve">section_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digestate_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_kg_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_kg_anim_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_kg_parea_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_kg_m3_load_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_kg_m3_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_percent_C_load_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_A_kg_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_A_kg_anim_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_A_kg_parea_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_A_kg_m3_load_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4_C_A_kg_m3_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH3_N_kg_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH3-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH3_N_kg_anim_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH3_N_kg_parea_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH3_N_kg_m3_load_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH3_N_kg_m3_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH3_N_percent_N_load_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O_N_kg_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O_N_kg_anim_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O_N_kg_parea_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O_N_kg_m3_load_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O_N_kg_m3_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O_N_percent_N_load_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_C_kg_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_C_kg_anim_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_C_kg_parea_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_C_kg_m3_load_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_C_kg_m3_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_C_percent_C_load_yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
     <t xml:space="preserve">year</t>
   </si>
   <si>
-    <t xml:space="preserve">section_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digestate_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_kg_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_kg_anim_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_kg_parea_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_kg_m3_load_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_kg_m3_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_percent_C_load_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_A_kg_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_A_kg_anim_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_A_kg_parea_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_A_kg_m3_load_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4_C_A_kg_m3_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH3_N_kg_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH3_N_kg_anim_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH3_N_kg_parea_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH3_N_kg_m3_load_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH3_N_kg_m3_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH3_N_percent_N_load_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O_N_kg_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O_N_kg_anim_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O_N_kg_parea_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O_N_kg_m3_load_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O_N_kg_m3_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O_N_percent_N_load_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_C_kg_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_C_kg_anim_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_C_kg_parea_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_C_kg_m3_load_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_C_kg_m3_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_C_percent_C_load_yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enteric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid</t>
-  </si>
-  <si>
     <t xml:space="preserve">C_load_kg_yr</t>
   </si>
   <si>
@@ -1258,6 +1351,9 @@
   </si>
   <si>
     <t xml:space="preserve">feed_spill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_spill</t>
   </si>
   <si>
     <t xml:space="preserve">slurry</t>
@@ -3073,34 +3169,72 @@
       <c r="C19" t="s">
         <v>80</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
       <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
       <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
       <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
       <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
       <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
+      <c r="R19" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19" t="s">
+        <v>43</v>
+      </c>
       <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
+      <c r="U19" t="s">
+        <v>80</v>
+      </c>
+      <c r="V19" t="s">
+        <v>43</v>
+      </c>
       <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
+      <c r="X19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>43</v>
+      </c>
       <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
+      <c r="AA19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>43</v>
+      </c>
       <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
+      <c r="AD19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>43</v>
+      </c>
       <c r="AF19"/>
     </row>
     <row r="20">
@@ -3112,146 +3246,146 @@
         <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
         <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
         <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="K20"/>
       <c r="L20" t="s">
         <v>82</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="s">
         <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="Q20"/>
       <c r="R20" t="s">
         <v>82</v>
       </c>
       <c r="S20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="T20"/>
       <c r="U20" t="s">
         <v>82</v>
       </c>
       <c r="V20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="W20"/>
       <c r="X20" t="s">
         <v>82</v>
       </c>
       <c r="Y20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="Z20"/>
       <c r="AA20" t="s">
         <v>82</v>
       </c>
       <c r="AB20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AC20"/>
       <c r="AD20" t="s">
         <v>82</v>
       </c>
       <c r="AE20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AF20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N21"/>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T21"/>
       <c r="U21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W21"/>
       <c r="X21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z21"/>
       <c r="AA21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC21"/>
       <c r="AD21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF21"/>
     </row>
@@ -3264,168 +3398,168 @@
         <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22"/>
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
       <c r="F22" t="s">
         <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22"/>
+        <v>88</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
       <c r="I22" t="s">
         <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22"/>
+        <v>88</v>
+      </c>
+      <c r="K22" t="s">
+        <v>88</v>
+      </c>
       <c r="L22" t="s">
         <v>87</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22"/>
+        <v>88</v>
+      </c>
+      <c r="N22" t="s">
+        <v>88</v>
+      </c>
       <c r="O22" t="s">
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q22"/>
+        <v>88</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>88</v>
+      </c>
       <c r="R22" t="s">
         <v>87</v>
       </c>
       <c r="S22" t="s">
-        <v>85</v>
-      </c>
-      <c r="T22"/>
+        <v>88</v>
+      </c>
+      <c r="T22" t="s">
+        <v>88</v>
+      </c>
       <c r="U22" t="s">
         <v>87</v>
       </c>
       <c r="V22" t="s">
-        <v>85</v>
-      </c>
-      <c r="W22"/>
+        <v>88</v>
+      </c>
+      <c r="W22" t="s">
+        <v>88</v>
+      </c>
       <c r="X22" t="s">
         <v>87</v>
       </c>
       <c r="Y22" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z22"/>
+        <v>88</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>88</v>
+      </c>
       <c r="AA22" t="s">
         <v>87</v>
       </c>
       <c r="AB22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC22"/>
+        <v>88</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>88</v>
+      </c>
       <c r="AD22" t="s">
         <v>87</v>
       </c>
       <c r="AE22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF22"/>
+        <v>88</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
         <v>90</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23" t="s">
         <v>90</v>
       </c>
-      <c r="H23" t="s">
+      <c r="M23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23" t="s">
         <v>90</v>
       </c>
-      <c r="I23" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="P23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23"/>
+      <c r="R23" t="s">
         <v>90</v>
       </c>
-      <c r="K23" t="s">
+      <c r="S23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T23"/>
+      <c r="U23" t="s">
         <v>90</v>
       </c>
-      <c r="L23" t="s">
-        <v>89</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="V23" t="s">
+        <v>83</v>
+      </c>
+      <c r="W23"/>
+      <c r="X23" t="s">
         <v>90</v>
       </c>
-      <c r="N23" t="s">
+      <c r="Y23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z23"/>
+      <c r="AA23" t="s">
         <v>90</v>
       </c>
-      <c r="O23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="AB23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC23"/>
+      <c r="AD23" t="s">
         <v>90</v>
       </c>
-      <c r="Q23" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" t="s">
-        <v>89</v>
-      </c>
-      <c r="S23" t="s">
-        <v>90</v>
-      </c>
-      <c r="T23" t="s">
-        <v>90</v>
-      </c>
-      <c r="U23" t="s">
-        <v>89</v>
-      </c>
-      <c r="V23" t="s">
-        <v>90</v>
-      </c>
-      <c r="W23" t="s">
-        <v>90</v>
-      </c>
-      <c r="X23" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>89</v>
-      </c>
       <c r="AE23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>90</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AF23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3436,152 +3570,152 @@
         <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
         <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
         <v>92</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K24"/>
       <c r="L24" t="s">
         <v>92</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="s">
         <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Q24"/>
       <c r="R24" t="s">
         <v>92</v>
       </c>
       <c r="S24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="T24"/>
       <c r="U24" t="s">
         <v>92</v>
       </c>
       <c r="V24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W24"/>
       <c r="X24" t="s">
         <v>92</v>
       </c>
       <c r="Y24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Z24"/>
       <c r="AA24" t="s">
         <v>92</v>
       </c>
       <c r="AB24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AC24"/>
       <c r="AD24" t="s">
         <v>92</v>
       </c>
       <c r="AE24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AF24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25"/>
       <c r="L25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N25"/>
       <c r="O25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T25"/>
       <c r="U25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W25"/>
       <c r="X25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z25"/>
       <c r="AA25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC25"/>
       <c r="AD25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
@@ -3595,251 +3729,231 @@
         <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
         <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K26"/>
       <c r="L26" t="s">
         <v>97</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N26"/>
       <c r="O26" t="s">
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q26"/>
       <c r="R26" t="s">
         <v>97</v>
       </c>
       <c r="S26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T26"/>
       <c r="U26" t="s">
         <v>97</v>
       </c>
       <c r="V26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W26"/>
       <c r="X26" t="s">
         <v>97</v>
       </c>
       <c r="Y26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z26"/>
       <c r="AA26" t="s">
         <v>97</v>
       </c>
       <c r="AB26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC26"/>
       <c r="AD26" t="s">
         <v>97</v>
       </c>
       <c r="AE26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T27"/>
       <c r="U27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W27"/>
       <c r="X27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z27"/>
       <c r="AA27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC27"/>
       <c r="AD27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28"/>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
+      <c r="C28"/>
+      <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" t="s">
-        <v>106</v>
-      </c>
+      <c r="F28"/>
+      <c r="G28"/>
       <c r="H28"/>
-      <c r="I28" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" t="s">
-        <v>106</v>
-      </c>
+      <c r="I28"/>
+      <c r="J28"/>
       <c r="K28"/>
-      <c r="L28" t="s">
-        <v>104</v>
-      </c>
-      <c r="M28" t="s">
-        <v>106</v>
-      </c>
+      <c r="L28"/>
+      <c r="M28"/>
       <c r="N28"/>
-      <c r="O28" t="s">
-        <v>104</v>
-      </c>
-      <c r="P28" t="s">
-        <v>106</v>
-      </c>
+      <c r="O28"/>
+      <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28" t="s">
-        <v>104</v>
-      </c>
-      <c r="S28" t="s">
-        <v>106</v>
-      </c>
+      <c r="R28"/>
+      <c r="S28"/>
       <c r="T28"/>
-      <c r="U28" t="s">
-        <v>104</v>
-      </c>
-      <c r="V28" t="s">
-        <v>106</v>
-      </c>
+      <c r="U28"/>
+      <c r="V28"/>
       <c r="W28"/>
-      <c r="X28" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>106</v>
-      </c>
+      <c r="X28"/>
+      <c r="Y28"/>
       <c r="Z28"/>
-      <c r="AA28" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>106</v>
-      </c>
+      <c r="AA28"/>
+      <c r="AB28"/>
       <c r="AC28"/>
-      <c r="AD28" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>106</v>
-      </c>
+      <c r="AD28"/>
+      <c r="AE28"/>
       <c r="AF28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29"/>
-      <c r="C29"/>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29"/>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29"/>
+      <c r="I29" t="s">
+        <v>106</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="L29"/>
+      <c r="L29" t="s">
+        <v>106</v>
+      </c>
       <c r="M29"/>
       <c r="N29"/>
-      <c r="O29"/>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
+      <c r="R29" t="s">
+        <v>106</v>
+      </c>
       <c r="S29"/>
       <c r="T29"/>
-      <c r="U29"/>
+      <c r="U29" t="s">
+        <v>106</v>
+      </c>
       <c r="V29"/>
       <c r="W29"/>
-      <c r="X29"/>
+      <c r="X29" t="s">
+        <v>106</v>
+      </c>
       <c r="Y29"/>
       <c r="Z29"/>
-      <c r="AA29"/>
+      <c r="AA29" t="s">
+        <v>106</v>
+      </c>
       <c r="AB29"/>
       <c r="AC29"/>
-      <c r="AD29"/>
+      <c r="AD29" t="s">
+        <v>106</v>
+      </c>
       <c r="AE29"/>
       <c r="AF29"/>
     </row>
@@ -3849,129 +3963,149 @@
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30"/>
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30"/>
+        <v>107</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30"/>
+        <v>107</v>
+      </c>
+      <c r="J30" t="s">
+        <v>75</v>
+      </c>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>108</v>
-      </c>
-      <c r="M30"/>
+        <v>107</v>
+      </c>
+      <c r="M30" t="s">
+        <v>75</v>
+      </c>
       <c r="N30"/>
       <c r="O30" t="s">
-        <v>108</v>
-      </c>
-      <c r="P30"/>
+        <v>107</v>
+      </c>
+      <c r="P30" t="s">
+        <v>75</v>
+      </c>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>108</v>
-      </c>
-      <c r="S30"/>
+        <v>107</v>
+      </c>
+      <c r="S30" t="s">
+        <v>75</v>
+      </c>
       <c r="T30"/>
       <c r="U30" t="s">
-        <v>108</v>
-      </c>
-      <c r="V30"/>
+        <v>107</v>
+      </c>
+      <c r="V30" t="s">
+        <v>75</v>
+      </c>
       <c r="W30"/>
       <c r="X30" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y30"/>
+        <v>107</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>75</v>
+      </c>
       <c r="Z30"/>
       <c r="AA30" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB30"/>
+        <v>107</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>75</v>
+      </c>
       <c r="AC30"/>
       <c r="AD30" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE30"/>
+        <v>107</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>75</v>
+      </c>
       <c r="AF30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
         <v>110</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" t="s">
         <v>110</v>
-      </c>
-      <c r="G31" t="s">
-        <v>75</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" t="s">
         <v>110</v>
-      </c>
-      <c r="J31" t="s">
-        <v>75</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="s">
+        <v>109</v>
+      </c>
+      <c r="M31" t="s">
         <v>110</v>
-      </c>
-      <c r="M31" t="s">
-        <v>75</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" t="s">
         <v>110</v>
-      </c>
-      <c r="P31" t="s">
-        <v>75</v>
       </c>
       <c r="Q31"/>
       <c r="R31" t="s">
+        <v>109</v>
+      </c>
+      <c r="S31" t="s">
         <v>110</v>
-      </c>
-      <c r="S31" t="s">
-        <v>75</v>
       </c>
       <c r="T31"/>
       <c r="U31" t="s">
+        <v>109</v>
+      </c>
+      <c r="V31" t="s">
         <v>110</v>
-      </c>
-      <c r="V31" t="s">
-        <v>75</v>
       </c>
       <c r="W31"/>
       <c r="X31" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y31" t="s">
         <v>110</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>75</v>
       </c>
       <c r="Z31"/>
       <c r="AA31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB31" t="s">
         <v>110</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>75</v>
       </c>
       <c r="AC31"/>
       <c r="AD31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE31" t="s">
         <v>110</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>75</v>
       </c>
       <c r="AF31"/>
     </row>
@@ -3984,222 +4118,222 @@
         <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
         <v>112</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
         <v>112</v>
       </c>
       <c r="J32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="s">
         <v>112</v>
       </c>
       <c r="M32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="s">
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="Q32"/>
       <c r="R32" t="s">
         <v>112</v>
       </c>
       <c r="S32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="T32"/>
       <c r="U32" t="s">
         <v>112</v>
       </c>
       <c r="V32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="W32"/>
       <c r="X32" t="s">
         <v>112</v>
       </c>
       <c r="Y32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="Z32"/>
       <c r="AA32" t="s">
         <v>112</v>
       </c>
       <c r="AB32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="AC32"/>
       <c r="AD32" t="s">
         <v>112</v>
       </c>
       <c r="AE32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="AF32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N33"/>
       <c r="O33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T33"/>
       <c r="U33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W33"/>
       <c r="X33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z33"/>
       <c r="AA33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC33"/>
       <c r="AD33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AE33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
         <v>117</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" t="s">
         <v>117</v>
-      </c>
-      <c r="G34" t="s">
-        <v>85</v>
       </c>
       <c r="H34"/>
       <c r="I34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" t="s">
         <v>117</v>
-      </c>
-      <c r="J34" t="s">
-        <v>85</v>
       </c>
       <c r="K34"/>
       <c r="L34" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" t="s">
         <v>117</v>
-      </c>
-      <c r="M34" t="s">
-        <v>85</v>
       </c>
       <c r="N34"/>
       <c r="O34" t="s">
+        <v>116</v>
+      </c>
+      <c r="P34" t="s">
         <v>117</v>
-      </c>
-      <c r="P34" t="s">
-        <v>85</v>
       </c>
       <c r="Q34"/>
       <c r="R34" t="s">
+        <v>116</v>
+      </c>
+      <c r="S34" t="s">
         <v>117</v>
-      </c>
-      <c r="S34" t="s">
-        <v>85</v>
       </c>
       <c r="T34"/>
       <c r="U34" t="s">
+        <v>116</v>
+      </c>
+      <c r="V34" t="s">
         <v>117</v>
-      </c>
-      <c r="V34" t="s">
-        <v>85</v>
       </c>
       <c r="W34"/>
       <c r="X34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y34" t="s">
         <v>117</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>85</v>
       </c>
       <c r="Z34"/>
       <c r="AA34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB34" t="s">
         <v>117</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>85</v>
       </c>
       <c r="AC34"/>
       <c r="AD34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE34" t="s">
         <v>117</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>85</v>
       </c>
       <c r="AF34"/>
     </row>
@@ -4212,223 +4346,187 @@
         <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
         <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
         <v>119</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="K35"/>
       <c r="L35" t="s">
         <v>119</v>
       </c>
       <c r="M35" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="N35"/>
       <c r="O35" t="s">
         <v>119</v>
       </c>
       <c r="P35" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="Q35"/>
       <c r="R35" t="s">
         <v>119</v>
       </c>
       <c r="S35" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="T35"/>
       <c r="U35" t="s">
         <v>119</v>
       </c>
       <c r="V35" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="W35"/>
       <c r="X35" t="s">
         <v>119</v>
       </c>
       <c r="Y35" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="Z35"/>
       <c r="AA35" t="s">
         <v>119</v>
       </c>
       <c r="AB35" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="AC35"/>
       <c r="AD35" t="s">
         <v>119</v>
       </c>
       <c r="AE35" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="AF35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36"/>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="K36"/>
       <c r="L36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M36" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N36"/>
       <c r="O36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S36" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="T36"/>
       <c r="U36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V36" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="W36"/>
       <c r="X36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y36" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="Z36"/>
       <c r="AA36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB36" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="AC36"/>
       <c r="AD36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE36" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="AF36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
         <v>124</v>
       </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
       <c r="E37"/>
-      <c r="F37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
+      <c r="F37"/>
+      <c r="G37"/>
       <c r="H37"/>
-      <c r="I37" t="s">
-        <v>124</v>
-      </c>
-      <c r="J37" t="s">
-        <v>33</v>
-      </c>
+      <c r="I37"/>
+      <c r="J37"/>
       <c r="K37"/>
-      <c r="L37" t="s">
-        <v>124</v>
-      </c>
-      <c r="M37" t="s">
-        <v>33</v>
-      </c>
+      <c r="L37"/>
+      <c r="M37"/>
       <c r="N37"/>
-      <c r="O37" t="s">
-        <v>124</v>
-      </c>
-      <c r="P37" t="s">
-        <v>33</v>
-      </c>
+      <c r="O37"/>
+      <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" t="s">
-        <v>124</v>
-      </c>
-      <c r="S37" t="s">
-        <v>33</v>
-      </c>
+      <c r="R37"/>
+      <c r="S37"/>
       <c r="T37"/>
-      <c r="U37" t="s">
-        <v>124</v>
-      </c>
-      <c r="V37" t="s">
-        <v>33</v>
-      </c>
+      <c r="U37"/>
+      <c r="V37"/>
       <c r="W37"/>
-      <c r="X37" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>33</v>
-      </c>
+      <c r="X37"/>
+      <c r="Y37"/>
       <c r="Z37"/>
-      <c r="AA37" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>33</v>
-      </c>
+      <c r="AA37"/>
+      <c r="AB37"/>
       <c r="AC37"/>
-      <c r="AD37" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>33</v>
-      </c>
+      <c r="AD37"/>
+      <c r="AE37"/>
       <c r="AF37"/>
     </row>
     <row r="38">
@@ -4684,7 +4782,7 @@
         <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
@@ -4912,7 +5010,7 @@
         <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
@@ -4988,7 +5086,7 @@
         <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
@@ -5064,7 +5162,7 @@
         <v>151</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
@@ -6322,70 +6420,70 @@
         <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
         <v>199</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64"/>
       <c r="I64" t="s">
         <v>199</v>
       </c>
       <c r="J64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K64"/>
       <c r="L64" t="s">
         <v>199</v>
       </c>
       <c r="M64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N64"/>
       <c r="O64" t="s">
         <v>199</v>
       </c>
       <c r="P64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q64"/>
       <c r="R64" t="s">
         <v>199</v>
       </c>
       <c r="S64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T64"/>
       <c r="U64" t="s">
         <v>199</v>
       </c>
       <c r="V64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W64"/>
       <c r="X64" t="s">
         <v>199</v>
       </c>
       <c r="Y64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z64"/>
       <c r="AA64" t="s">
         <v>199</v>
       </c>
       <c r="AB64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC64"/>
       <c r="AD64" t="s">
         <v>199</v>
       </c>
       <c r="AE64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF64"/>
     </row>
@@ -6570,70 +6668,70 @@
         <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
         <v>206</v>
       </c>
       <c r="G67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H67"/>
       <c r="I67" t="s">
         <v>206</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K67"/>
       <c r="L67" t="s">
         <v>206</v>
       </c>
       <c r="M67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="s">
         <v>206</v>
       </c>
       <c r="P67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q67"/>
       <c r="R67" t="s">
         <v>206</v>
       </c>
       <c r="S67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T67"/>
       <c r="U67" t="s">
         <v>206</v>
       </c>
       <c r="V67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W67"/>
       <c r="X67" t="s">
         <v>206</v>
       </c>
       <c r="Y67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z67"/>
       <c r="AA67" t="s">
         <v>206</v>
       </c>
       <c r="AB67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC67"/>
       <c r="AD67" t="s">
         <v>206</v>
       </c>
       <c r="AE67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF67"/>
     </row>
@@ -7035,7 +7133,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
@@ -7127,7 +7225,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
@@ -7682,70 +7780,70 @@
         <v>239</v>
       </c>
       <c r="D84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
         <v>239</v>
       </c>
       <c r="G84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="s">
         <v>239</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="s">
         <v>239</v>
       </c>
       <c r="M84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="s">
         <v>239</v>
       </c>
       <c r="P84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q84"/>
       <c r="R84" t="s">
         <v>239</v>
       </c>
       <c r="S84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T84"/>
       <c r="U84" t="s">
         <v>239</v>
       </c>
       <c r="V84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W84"/>
       <c r="X84" t="s">
         <v>239</v>
       </c>
       <c r="Y84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z84"/>
       <c r="AA84" t="s">
         <v>239</v>
       </c>
       <c r="AB84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC84"/>
       <c r="AD84" t="s">
         <v>239</v>
       </c>
       <c r="AE84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF84"/>
     </row>
@@ -8080,70 +8178,70 @@
         <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
         <v>252</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
         <v>252</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
         <v>252</v>
       </c>
       <c r="M5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
         <v>252</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q5"/>
       <c r="R5" t="s">
         <v>252</v>
       </c>
       <c r="S5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T5"/>
       <c r="U5" t="s">
         <v>252</v>
       </c>
       <c r="V5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W5"/>
       <c r="X5" t="s">
         <v>252</v>
       </c>
       <c r="Y5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z5"/>
       <c r="AA5" t="s">
         <v>252</v>
       </c>
       <c r="AB5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC5"/>
       <c r="AD5" t="s">
         <v>252</v>
       </c>
       <c r="AE5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF5"/>
     </row>
@@ -8440,70 +8538,70 @@
         <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
         <v>256</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
         <v>256</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K10"/>
       <c r="L10" t="s">
         <v>256</v>
       </c>
       <c r="M10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="s">
         <v>256</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q10"/>
       <c r="R10" t="s">
         <v>256</v>
       </c>
       <c r="S10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T10"/>
       <c r="U10" t="s">
         <v>256</v>
       </c>
       <c r="V10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W10"/>
       <c r="X10" t="s">
         <v>256</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z10"/>
       <c r="AA10" t="s">
         <v>256</v>
       </c>
       <c r="AB10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC10"/>
       <c r="AD10" t="s">
         <v>256</v>
       </c>
       <c r="AE10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF10"/>
     </row>
@@ -9289,7 +9387,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
@@ -9401,7 +9499,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
@@ -9593,7 +9691,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
@@ -9669,7 +9767,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
@@ -9765,7 +9863,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
@@ -9841,7 +9939,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
@@ -9937,7 +10035,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
@@ -10049,7 +10147,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
@@ -10201,7 +10299,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
@@ -10277,77 +10375,77 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
         <v>277</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
         <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H34"/>
       <c r="I34" t="s">
         <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K34"/>
       <c r="L34" t="s">
         <v>277</v>
       </c>
       <c r="M34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N34"/>
       <c r="O34" t="s">
         <v>277</v>
       </c>
       <c r="P34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q34"/>
       <c r="R34" t="s">
         <v>277</v>
       </c>
       <c r="S34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T34"/>
       <c r="U34" t="s">
         <v>277</v>
       </c>
       <c r="V34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W34"/>
       <c r="X34" t="s">
         <v>277</v>
       </c>
       <c r="Y34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z34"/>
       <c r="AA34" t="s">
         <v>277</v>
       </c>
       <c r="AB34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC34"/>
       <c r="AD34" t="s">
         <v>277</v>
       </c>
       <c r="AE34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF34"/>
     </row>
@@ -10429,7 +10527,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36"/>
       <c r="C36" t="s">
@@ -10505,7 +10603,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
@@ -10816,70 +10914,70 @@
         <v>287</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
         <v>287</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
         <v>287</v>
       </c>
       <c r="J41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K41"/>
       <c r="L41" t="s">
         <v>287</v>
       </c>
       <c r="M41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N41"/>
       <c r="O41" t="s">
         <v>287</v>
       </c>
       <c r="P41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q41"/>
       <c r="R41" t="s">
         <v>287</v>
       </c>
       <c r="S41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T41"/>
       <c r="U41" t="s">
         <v>287</v>
       </c>
       <c r="V41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W41"/>
       <c r="X41" t="s">
         <v>287</v>
       </c>
       <c r="Y41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z41"/>
       <c r="AA41" t="s">
         <v>287</v>
       </c>
       <c r="AB41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AC41"/>
       <c r="AD41" t="s">
         <v>287</v>
       </c>
       <c r="AE41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AF41"/>
     </row>
@@ -11804,70 +11902,70 @@
         <v>306</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
         <v>306</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H54"/>
       <c r="I54" t="s">
         <v>306</v>
       </c>
       <c r="J54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K54"/>
       <c r="L54" t="s">
         <v>306</v>
       </c>
       <c r="M54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N54"/>
       <c r="O54" t="s">
         <v>306</v>
       </c>
       <c r="P54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q54"/>
       <c r="R54" t="s">
         <v>306</v>
       </c>
       <c r="S54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T54"/>
       <c r="U54" t="s">
         <v>306</v>
       </c>
       <c r="V54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W54"/>
       <c r="X54" t="s">
         <v>306</v>
       </c>
       <c r="Y54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z54"/>
       <c r="AA54" t="s">
         <v>306</v>
       </c>
       <c r="AB54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC54"/>
       <c r="AD54" t="s">
         <v>306</v>
       </c>
       <c r="AE54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF54"/>
     </row>
@@ -11956,70 +12054,70 @@
         <v>309</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
         <v>309</v>
       </c>
       <c r="G56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H56"/>
       <c r="I56" t="s">
         <v>309</v>
       </c>
       <c r="J56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K56"/>
       <c r="L56" t="s">
         <v>309</v>
       </c>
       <c r="M56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="s">
         <v>309</v>
       </c>
       <c r="P56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q56"/>
       <c r="R56" t="s">
         <v>309</v>
       </c>
       <c r="S56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T56"/>
       <c r="U56" t="s">
         <v>309</v>
       </c>
       <c r="V56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W56"/>
       <c r="X56" t="s">
         <v>309</v>
       </c>
       <c r="Y56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z56"/>
       <c r="AA56" t="s">
         <v>309</v>
       </c>
       <c r="AB56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC56"/>
       <c r="AD56" t="s">
         <v>309</v>
       </c>
       <c r="AE56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF56"/>
     </row>
@@ -12372,70 +12470,70 @@
         <v>315</v>
       </c>
       <c r="D62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
         <v>315</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="s">
         <v>315</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K62"/>
       <c r="L62" t="s">
         <v>315</v>
       </c>
       <c r="M62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N62"/>
       <c r="O62" t="s">
         <v>315</v>
       </c>
       <c r="P62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q62"/>
       <c r="R62" t="s">
         <v>315</v>
       </c>
       <c r="S62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T62"/>
       <c r="U62" t="s">
         <v>315</v>
       </c>
       <c r="V62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W62"/>
       <c r="X62" t="s">
         <v>315</v>
       </c>
       <c r="Y62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z62"/>
       <c r="AA62" t="s">
         <v>315</v>
       </c>
       <c r="AB62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC62"/>
       <c r="AD62" t="s">
         <v>315</v>
       </c>
       <c r="AE62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF62"/>
     </row>
@@ -12904,70 +13002,70 @@
         <v>322</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
         <v>322</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H69"/>
       <c r="I69" t="s">
         <v>322</v>
       </c>
       <c r="J69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K69"/>
       <c r="L69" t="s">
         <v>322</v>
       </c>
       <c r="M69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N69"/>
       <c r="O69" t="s">
         <v>322</v>
       </c>
       <c r="P69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q69"/>
       <c r="R69" t="s">
         <v>322</v>
       </c>
       <c r="S69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T69"/>
       <c r="U69" t="s">
         <v>322</v>
       </c>
       <c r="V69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W69"/>
       <c r="X69" t="s">
         <v>322</v>
       </c>
       <c r="Y69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z69"/>
       <c r="AA69" t="s">
         <v>322</v>
       </c>
       <c r="AB69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AC69"/>
       <c r="AD69" t="s">
         <v>322</v>
       </c>
       <c r="AE69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AF69"/>
     </row>
@@ -13277,7 +13375,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B74"/>
       <c r="C74" t="s">
@@ -13429,7 +13527,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
@@ -13892,70 +13990,70 @@
         <v>335</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
         <v>335</v>
       </c>
       <c r="G82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H82"/>
       <c r="I82" t="s">
         <v>335</v>
       </c>
       <c r="J82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K82"/>
       <c r="L82" t="s">
         <v>335</v>
       </c>
       <c r="M82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N82"/>
       <c r="O82" t="s">
         <v>335</v>
       </c>
       <c r="P82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q82"/>
       <c r="R82" t="s">
         <v>335</v>
       </c>
       <c r="S82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T82"/>
       <c r="U82" t="s">
         <v>335</v>
       </c>
       <c r="V82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W82"/>
       <c r="X82" t="s">
         <v>335</v>
       </c>
       <c r="Y82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z82"/>
       <c r="AA82" t="s">
         <v>335</v>
       </c>
       <c r="AB82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC82"/>
       <c r="AD82" t="s">
         <v>335</v>
       </c>
       <c r="AE82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF82"/>
     </row>
@@ -14044,70 +14142,70 @@
         <v>337</v>
       </c>
       <c r="D84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
         <v>337</v>
       </c>
       <c r="G84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="s">
         <v>337</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="s">
         <v>337</v>
       </c>
       <c r="M84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="s">
         <v>337</v>
       </c>
       <c r="P84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q84"/>
       <c r="R84" t="s">
         <v>337</v>
       </c>
       <c r="S84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T84"/>
       <c r="U84" t="s">
         <v>337</v>
       </c>
       <c r="V84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W84"/>
       <c r="X84" t="s">
         <v>337</v>
       </c>
       <c r="Y84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z84"/>
       <c r="AA84" t="s">
         <v>337</v>
       </c>
       <c r="AB84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC84"/>
       <c r="AD84" t="s">
         <v>337</v>
       </c>
       <c r="AE84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF84"/>
     </row>
@@ -14364,72 +14462,72 @@
         <v>344</v>
       </c>
       <c r="D89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F89" t="s">
         <v>344</v>
       </c>
       <c r="G89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H89"/>
       <c r="I89" t="s">
         <v>344</v>
       </c>
       <c r="J89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K89"/>
       <c r="L89" t="s">
         <v>344</v>
       </c>
       <c r="M89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N89"/>
       <c r="O89" t="s">
         <v>344</v>
       </c>
       <c r="P89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q89"/>
       <c r="R89" t="s">
         <v>344</v>
       </c>
       <c r="S89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T89"/>
       <c r="U89" t="s">
         <v>344</v>
       </c>
       <c r="V89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W89"/>
       <c r="X89" t="s">
         <v>344</v>
       </c>
       <c r="Y89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z89"/>
       <c r="AA89" t="s">
         <v>344</v>
       </c>
       <c r="AB89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC89"/>
       <c r="AD89" t="s">
         <v>344</v>
       </c>
       <c r="AE89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF89"/>
     </row>
@@ -14640,97 +14738,16 @@
       <c r="H1" t="s">
         <v>356</v>
       </c>
-      <c r="I1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1" t="s">
-        <v>360</v>
-      </c>
-      <c r="M1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N1" t="s">
-        <v>362</v>
-      </c>
-      <c r="O1" t="s">
-        <v>363</v>
-      </c>
-      <c r="P1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>365</v>
-      </c>
-      <c r="R1" t="s">
-        <v>366</v>
-      </c>
-      <c r="S1" t="s">
-        <v>367</v>
-      </c>
-      <c r="T1" t="s">
-        <v>368</v>
-      </c>
-      <c r="U1" t="s">
-        <v>369</v>
-      </c>
-      <c r="V1" t="s">
-        <v>370</v>
-      </c>
-      <c r="W1" t="s">
-        <v>371</v>
-      </c>
-      <c r="X1" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -14738,95 +14755,14 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>358</v>
       </c>
       <c r="G2" t="n">
         <v>1432.34</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1432.34</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3004.19</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>14858.32</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>11.77</v>
+      <c r="H2" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="3">
@@ -14834,106 +14770,25 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>358</v>
       </c>
       <c r="G3" t="n">
-        <v>4289.2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5489.52</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3004.19</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="W3" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>14858.32</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>69</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>11.77</v>
+        <v>4887.85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4">
@@ -14941,106 +14796,25 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>358</v>
       </c>
       <c r="G4" t="n">
-        <v>12387.58</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.53</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8520.64</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="R4" t="n">
-        <v>111.03</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="X4" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13617.62</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12.82</v>
+        <v>11901.41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="5">
@@ -15048,106 +14822,2937 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>364</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>365</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>365</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>365</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="H18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>366</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>367</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>367</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="H23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>367</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1432.34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>360</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>368</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5494.83</v>
+      </c>
+      <c r="H27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>368</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8340.57</v>
+      </c>
+      <c r="H28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>369</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>369</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>370</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>370</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>370</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>370</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>357</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>371</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="H42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="H43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>373</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2798.24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>361</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>373</v>
+      </c>
+      <c r="G48" t="n">
+        <v>105.56</v>
+      </c>
+      <c r="H48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>362</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" t="s">
+        <v>357</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>360</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>361</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>375</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" t="s">
+        <v>362</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
+        <v>360</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" t="s">
+        <v>361</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>376</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H56" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="s">
+        <v>362</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>376</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>377</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>360</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>377</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" t="s">
+        <v>361</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>377</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>377</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" t="s">
+        <v>357</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>378</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" t="s">
+        <v>360</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>378</v>
+      </c>
+      <c r="G63" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="H63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" t="s">
+        <v>361</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>378</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H64" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>362</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>378</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>357</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>379</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" t="s">
+        <v>360</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>379</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
+        <v>361</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>379</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" t="s">
+        <v>362</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>379</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>211</v>
+      </c>
+      <c r="B70" t="s">
+        <v>357</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>380</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" t="s">
+        <v>360</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>380</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" t="s">
+        <v>361</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>380</v>
+      </c>
+      <c r="G72" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="H72" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>380</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>382</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>382</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>382</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>382</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" t="s">
+        <v>357</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>383</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" t="s">
+        <v>360</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>383</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>383</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H80" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>383</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>384</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" t="s">
+        <v>360</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>384</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" t="s">
+        <v>361</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>384</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" t="s">
+        <v>362</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>384</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>385</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>338</v>
+      </c>
+      <c r="B87" t="s">
+        <v>360</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>385</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>340</v>
+      </c>
+      <c r="B88" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>385</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H88" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>343</v>
+      </c>
+      <c r="B89" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>385</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>345</v>
+      </c>
+      <c r="B90" t="s">
+        <v>357</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>386</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>346</v>
+      </c>
+      <c r="B91" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>386</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>348</v>
+      </c>
+      <c r="B92" t="s">
+        <v>361</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>386</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
         <v>387</v>
       </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B93" t="s">
+        <v>362</v>
+      </c>
+      <c r="C93" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>386</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>388</v>
+      </c>
+      <c r="B94" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>389</v>
+      </c>
+      <c r="G94" t="n">
+        <v>281.66</v>
+      </c>
+      <c r="H94" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>391</v>
+      </c>
+      <c r="B95" t="s">
+        <v>360</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>389</v>
+      </c>
+      <c r="G95" t="n">
+        <v>14912.3</v>
+      </c>
+      <c r="H95" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>392</v>
+      </c>
+      <c r="B96" t="s">
+        <v>361</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>389</v>
+      </c>
+      <c r="G96" t="n">
+        <v>13228.49</v>
+      </c>
+      <c r="H96" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>393</v>
+      </c>
+      <c r="B97" t="s">
+        <v>362</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>389</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>394</v>
+      </c>
+      <c r="B98" t="s">
+        <v>357</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>395</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>396</v>
+      </c>
+      <c r="B99" t="s">
+        <v>360</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>395</v>
+      </c>
+      <c r="G99" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>397</v>
+      </c>
+      <c r="B100" t="s">
+        <v>361</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>395</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="H100" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>311</v>
+      </c>
+      <c r="B101" t="s">
+        <v>362</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>395</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>398</v>
+      </c>
+      <c r="B102" t="s">
+        <v>357</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>399</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H102" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>400</v>
+      </c>
+      <c r="B103" t="s">
+        <v>360</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>399</v>
+      </c>
+      <c r="G103" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="H103" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>401</v>
+      </c>
+      <c r="B104" t="s">
+        <v>361</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>399</v>
+      </c>
+      <c r="G104" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="H104" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>402</v>
+      </c>
+      <c r="B105" t="s">
+        <v>362</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>399</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>403</v>
+      </c>
+      <c r="B106" t="s">
+        <v>357</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>404</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H106" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>405</v>
+      </c>
+      <c r="B107" t="s">
+        <v>360</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>404</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H107" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>406</v>
+      </c>
+      <c r="B108" t="s">
+        <v>361</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>404</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="H108" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>407</v>
+      </c>
+      <c r="B109" t="s">
+        <v>362</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>404</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>408</v>
+      </c>
+      <c r="B110" t="s">
+        <v>357</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>409</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>410</v>
+      </c>
+      <c r="B111" t="s">
+        <v>360</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>409</v>
+      </c>
+      <c r="G111" t="n">
+        <v>62.35</v>
+      </c>
+      <c r="H111" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>411</v>
+      </c>
+      <c r="B112" t="s">
+        <v>361</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>409</v>
+      </c>
+      <c r="G112" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="H112" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>412</v>
+      </c>
+      <c r="B113" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>409</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>413</v>
+      </c>
+      <c r="B114" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>414</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H114" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>415</v>
+      </c>
+      <c r="B115" t="s">
+        <v>360</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>414</v>
+      </c>
+      <c r="G115" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>416</v>
+      </c>
+      <c r="B116" t="s">
+        <v>361</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>414</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="H116" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B117" t="s">
+        <v>362</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>414</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -15172,34 +17777,34 @@
         <v>350</v>
       </c>
       <c r="C1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" t="s">
         <v>351</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>352</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>353</v>
       </c>
-      <c r="F1" t="s">
-        <v>354</v>
-      </c>
       <c r="G1" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="H1" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="I1" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="J1" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="K1" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="L1" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
@@ -15207,7 +17812,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -15225,7 +17830,7 @@
         <v>165308.178421229</v>
       </c>
       <c r="H2" t="n">
-        <v>16290.66</v>
+        <v>1714</v>
       </c>
       <c r="I2" t="n">
         <v>10677.9560722878</v>
@@ -15234,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0985472113695974</v>
+        <v>0.0103685130183485</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -15245,7 +17850,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -15260,22 +17865,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>126285.407096305</v>
+        <v>126343.321032043</v>
       </c>
       <c r="H3" t="n">
-        <v>19147.5177533341</v>
+        <v>19800.1540196453</v>
       </c>
       <c r="I3" t="n">
-        <v>22967.797953092</v>
+        <v>22967.7979530921</v>
       </c>
       <c r="J3" t="n">
-        <v>3004.18510357413</v>
+        <v>2798.23663807968</v>
       </c>
       <c r="K3" t="n">
-        <v>0.151620984511157</v>
+        <v>0.156717061558193</v>
       </c>
       <c r="L3" t="n">
-        <v>0.130799875099463</v>
+        <v>0.121833039623329</v>
       </c>
     </row>
     <row r="4">
@@ -15283,7 +17888,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -15298,22 +17903,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106242.235693071</v>
+        <v>104497.367961368</v>
       </c>
       <c r="H4" t="n">
-        <v>26005.1974555937</v>
+        <v>25129.9051274045</v>
       </c>
       <c r="I4" t="n">
-        <v>18035.0361873466</v>
+        <v>18079.3029214887</v>
       </c>
       <c r="J4" t="n">
-        <v>129.905559994661</v>
+        <v>124.428241181724</v>
       </c>
       <c r="K4" t="n">
-        <v>0.244772686549271</v>
+        <v>0.240483618082083</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00720295532790793</v>
+        <v>0.00688235833660549</v>
       </c>
     </row>
   </sheetData>
@@ -15335,164 +17940,175 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="C1" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="B2" t="n">
         <v>5704.99213803229</v>
       </c>
       <c r="C2" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="B3" t="n">
         <v>3836.33754517736</v>
       </c>
       <c r="C3" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="B4" t="n">
         <v>8376.16095301265</v>
       </c>
       <c r="C4" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="B5" t="n">
         <v>4318.32421430969</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="B6" t="n">
         <v>92.546198512213</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="B7" t="n">
         <v>3176.32710899599</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="B8" t="n">
         <v>625.271381341145</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="B9" t="n">
         <v>2112.71750980977</v>
       </c>
       <c r="C9" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="B10" t="n">
         <v>1584.53813235733</v>
       </c>
       <c r="C10" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="B11" t="n">
         <v>88.0663917381894</v>
       </c>
       <c r="C11" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="B12" t="n">
         <v>368.79126305894</v>
       </c>
       <c r="C12" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="B14" t="n">
         <v>4.26461541890462</v>
       </c>
       <c r="C14" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="B15" t="n">
-        <v>461.122270216034</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>409</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16" t="n">
+        <v>536.122270216034</v>
+      </c>
+      <c r="C16" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -15514,186 +18130,186 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="C1" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="B2" t="n">
         <v>133.391885066667</v>
       </c>
       <c r="C2" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="B3" t="n">
         <v>36.0156076080961</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="B4" t="n">
         <v>815.889608139295</v>
       </c>
       <c r="C4" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="B5" t="n">
         <v>156.490608021894</v>
       </c>
       <c r="C5" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="B6" t="n">
         <v>29.9873038745423</v>
       </c>
       <c r="C6" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="B7" t="n">
         <v>112.679567379633</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="B8" t="n">
         <v>428.617571447609</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="B9" t="n">
         <v>28.7648805089403</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="B10" t="n">
         <v>172.029252326713</v>
       </c>
       <c r="C10" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="B11" t="n">
         <v>20.2518812359401</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="B12" t="n">
         <v>864.77027773561</v>
       </c>
       <c r="C12" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="B13" t="n">
         <v>48.8806695963152</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="B14" t="n">
         <v>135.22972226439</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="B15" t="n">
         <v>151.777371090773</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="B16" t="n">
         <v>107.971003915734</v>
       </c>
       <c r="C16" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="B17" t="n">
         <v>213.230769230769</v>
       </c>
       <c r="C17" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -15715,98 +18331,98 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="B2" t="n">
         <v>667.372254517986</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="B3" t="n">
         <v>127.88431744651</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="B4" t="n">
         <v>1827.88908931196</v>
       </c>
       <c r="C4" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="B5" t="n">
         <v>122.67115195505</v>
       </c>
       <c r="C5" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="B6" t="n">
         <v>86.3664842861939</v>
       </c>
       <c r="C6" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="B7" t="n">
         <v>208.457255570747</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="B8" t="n">
         <v>576.702754025982</v>
       </c>
       <c r="C8" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="B9" t="n">
         <v>647.272111790189</v>
       </c>
       <c r="C9" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -15825,7 +18441,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
